--- a/biology/Médecine/Échelle_de_Hounsfield/Échelle_de_Hounsfield.xlsx
+++ b/biology/Médecine/Échelle_de_Hounsfield/Échelle_de_Hounsfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Hounsfield</t>
+          <t>Échelle_de_Hounsfield</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échelle de Hounsfield, nommée ainsi d'après Sir Godfrey Newbold Hounsfield, est une échelle quantitative décrivant la radiodensité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Hounsfield</t>
+          <t>Échelle_de_Hounsfield</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échelle des unités de Hounsfield (UH) est une transformation linéaire de la mesure du coefficient d'absorption original dans laquelle la densité de l'eau distillée, aux conditions normales de température et de pression (CNTP), est définie à zéro unité d'Hounsfield (UH), tandis que la densité de l'air aux CNTP est définie à −1 000 UH. Dans un voxel avec un coefficient d'absorption moyen 
           μ
@@ -539,8 +553,6 @@
  est le coefficient d'absorption linéaire de l'eau.
 Ainsi, une variation de une unité de Hounsfield (UH) représente une variation de 0,1 % du coefficient d'absorption de l'eau puisque le coefficient d'absorption de l'air est proche de zéro.
 C'est la définition pour les scanners à rayons X qui sont calibrés avec l'eau comme référence.
-Raisonnement
-Les conditions ci-dessus ont été choisies car ce sont des références valables universellement et adaptées aux applications-clés pour lesquelles la tomographie axiale calculée a été développée : l'imagerie anatomique interne de créatures vivantes basées sur des structures aqueuses organisées vivant principalement dans l'air, par exemple humaines.
 </t>
         </is>
       </c>
@@ -551,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Hounsfield</t>
+          <t>Échelle_de_Hounsfield</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,13 +578,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UH de matières courantes</t>
+          <t>Définition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'échelle de Hounsfield s'applique à la tomodensitométrie médicale mais pas à la tomographie calculée à faisceau conique[1].
-Une évaluation pratique de cela est l'évaluation de tumeurs, où, par exemple, une tumeur surrénalienne avec une radiodensité de moins de 10 UH est assez grasse dans sa composition et presque certainement un adénome surrénalien bénin[2].
+          <t>Raisonnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions ci-dessus ont été choisies car ce sont des références valables universellement et adaptées aux applications-clés pour lesquelles la tomographie axiale calculée a été développée : l'imagerie anatomique interne de créatures vivantes basées sur des structures aqueuses organisées vivant principalement dans l'air, par exemple humaines.
 </t>
         </is>
       </c>
@@ -583,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Hounsfield</t>
+          <t>Échelle_de_Hounsfield</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,10 +615,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>UH de matières courantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Hounsfield s'applique à la tomodensitométrie médicale mais pas à la tomographie calculée à faisceau conique.
+Une évaluation pratique de cela est l'évaluation de tumeurs, où, par exemple, une tumeur surrénalienne avec une radiodensité de moins de 10 UH est assez grasse dans sa composition et presque certainement un adénome surrénalien bénin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_Hounsfield</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Hounsfield</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Timothy G. Feeman, The Mathematics of Medical Imaging : A Beginner's Guide, Springer, coll. « Springer Undergraduate Texts in Mathematics and Technology », 2010, 141 p. (ISBN 978-0-387-92711-4, lire en ligne)</t>
         </is>
